--- a/biology/Histoire de la zoologie et de la botanique/Jakob_Friedrich_Ehrhart/Jakob_Friedrich_Ehrhart.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jakob_Friedrich_Ehrhart/Jakob_Friedrich_Ehrhart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jakob Friedrich Ehrhart est un botaniste et pharmacien allemand d'origine suisse, né le 4 novembre 1742 à Holderbank (Argovie) et mort le 26 juin 1795 à Herrenhausen, près de Hanovre.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Johannes Ehrhart et de Magdalena née Wild. Après des études de pharmacie, il travaille pour Johann Gerhard Reinhard Andreae (1724-1793) à Hanovre en 1770. Après avoir passé plusieurs années à Stockholm et à Uppsala, où il étudie auprès de Carl von Linné, il revient à Hanovre en 1776. Il obtient un contrat pour étudier la flore de la région de Hanovre, ce qu’il fait de 1780 à 1783. Botaniste attitré de l'Électorat de Brunswick-Lunebourg, il reçoit la direction des célèbres Jardins royaux de Herrenhausen.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est notamment l’auteur de :
 Chloris hanoverana (1776), Supplementum systematis vegetabilium, generum et specierum plantarum (1781)
